--- a/数据整理/stocks/A股/创业板/300741-华宝股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300741-华宝股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.69</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>7.28</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1390</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008929</t>
+          <t>501089</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰达宏利中证主要消费红利指数C</t>
+          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7.28</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501089</t>
+          <t>512590</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
+          <t>浦银安盛中证高股息精选ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.25</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>8.10</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005770</t>
+          <t>008929</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>信达澳银中证沪港深高股息精选指数</t>
+          <t>泰达宏利中证主要消费红利指数C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.06</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>512590</t>
+          <t>005770</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>浦银安盛中证高股息精选ETF</t>
+          <t>信达澳银中证沪港深高股息精选指数</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>99.22</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -637,7 +697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,15 +718,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -678,25 +748,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501089</t>
+          <t>008928</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
+          <t>泰达宏利中证主要消费红利指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.15</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.39</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1016</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -706,26 +786,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>512590</t>
+          <t>008929</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>浦银安盛中证高股息精选ETF</t>
+          <t>泰达宏利中证主要消费红利指数C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>97.58</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -734,26 +824,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008928</t>
+          <t>512590</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泰达宏利中证主要消费红利指数A</t>
+          <t>浦银安盛中证高股息精选ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.92</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.05</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+          <t>97.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -762,25 +862,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008929</t>
+          <t>501089</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>泰达宏利中证主要消费红利指数C</t>
+          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.92</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6.05</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>3</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300741-华宝股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300741-华宝股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -897,4 +898,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008928</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1347</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000968</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1334</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008929</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512590</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浦银安盛中证高股息精选ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501089</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002982</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005770</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信达澳银中证沪港深高股息精选指数</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300741-华宝股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300741-华宝股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1220,4 +1221,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008928</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1612</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519007</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>海富通强化回报混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>33.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008929</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501089</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300741-华宝股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300741-华宝股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1429,4 +1430,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300741-华宝股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300741-华宝股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1438,7 +1439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1449,17 +1450,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1469,14 +1490,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.25</v>
+          <t>008928</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1705</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1485,14 +1528,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.35</v>
+          <t>008929</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1501,14 +1566,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>501089</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.17</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="5">
@@ -1517,13 +1688,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.24</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300741-华宝股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300741-华宝股份.xlsx
@@ -6,12 +6,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,247 +455,287 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008928</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>泰达宏利中证主要消费红利指数A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.28</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1390</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501089</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.25</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.10</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0364</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>512590</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>浦银安盛中证高股息精选ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>99.22</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0316</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008929</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>泰达宏利中证主要消费红利指数C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.28</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0291</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005770</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>信达澳银中证沪港深高股息精选指数</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.06</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.24</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008928</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1705</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008929</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501089</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -762,22 +802,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.92</t>
+          <t>92.92</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.05</t>
+          <t>6.13</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1016</t>
+          <t>0.1612</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -790,36 +830,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008929</t>
+          <t>519007</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰达宏利中证主要消费红利指数C</t>
+          <t>海富通强化回报混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.92</t>
+          <t>33.20</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.05</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0242</t>
+          <t>0.0516</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -828,36 +868,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>512590</t>
+          <t>008929</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>浦银安盛中证高股息精选ETF</t>
+          <t>泰达宏利中证主要消费红利指数C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>97.58</t>
+          <t>92.92</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>6.13</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0202</t>
+          <t>0.0300</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -876,22 +916,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.15</t>
+          <t>94.64</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.39</t>
+          <t>5.90</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0198</t>
+          <t>0.0112</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -903,7 +943,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1225,7 +1265,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1292,22 +1332,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.92</t>
+          <t>93.92</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.13</t>
+          <t>6.05</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1612</t>
+          <t>0.1016</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1320,36 +1360,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519007</t>
+          <t>008929</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>海富通强化回报混合</t>
+          <t>泰达宏利中证主要消费红利指数C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>33.20</t>
+          <t>93.92</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>6.05</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0516</t>
+          <t>0.0242</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1358,36 +1398,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008929</t>
+          <t>512590</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泰达宏利中证主要消费红利指数C</t>
+          <t>浦银安盛中证高股息精选ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.92</t>
+          <t>97.58</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.13</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0300</t>
+          <t>0.0202</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1406,196 +1446,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.64</t>
+          <t>94.15</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.90</t>
+          <t>6.39</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0112</t>
+          <t>0.0198</t>
         </is>
       </c>
       <c r="H5" t="n">
         <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>008928</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>泰达宏利中证主要消费红利指数A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1705</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008929</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>泰达宏利中证主要消费红利指数C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0573</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>501089</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>95.12</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0064</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1609,112 +1479,242 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>008928</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1390</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501089</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512590</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浦银安盛中证高股息精选ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008929</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005770</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信达澳银中证沪港深高股息精选指数</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.24</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300741-华宝股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300741-华宝股份.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.23</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>0.17</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -566,6 +583,100 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501089</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>方正富邦消费红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -735,7 +846,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -943,7 +1054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1265,7 +1376,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1473,7 +1584,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
